--- a/Qalitätssicherung/TestTabelleGUI.xlsx
+++ b/Qalitätssicherung/TestTabelleGUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\OneDrive\Dokumente\GitHub\PSE-Stand_2301\Qalitätssicherung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="4D4CBB30E1FF2B4473FEAF647A161281A0529DEF" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{EBF74472-E7A2-4F89-8EA3-DEBB886FB722}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="4D4CBB30E1FF2B4473FEAF647A161281A0529DEF" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{06F0DCF7-666B-4510-B789-84D5C8D9BE70}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Kategorie</t>
   </si>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>auf unterschiedlichen Fenstergrößen getestet, funktioniert</t>
+  </si>
+  <si>
+    <t>funktioniert, manueles eingeben von .rdbf</t>
+  </si>
+  <si>
+    <t>exit und hinzufügen von .java funktoniert, reset lässt sich das Programm aufhängen</t>
+  </si>
+  <si>
+    <t>funktioniert</t>
+  </si>
+  <si>
+    <t>stepsizeVorschlag immer 1?</t>
   </si>
 </sst>
 </file>
@@ -345,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -369,8 +381,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -424,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,6 +477,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -838,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +934,9 @@
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="16">
+        <v>43158</v>
+      </c>
       <c r="E3" s="11" t="s">
         <v>98</v>
       </c>
@@ -912,7 +949,9 @@
         <v>14</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="16">
+        <v>43158</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>99</v>
       </c>
@@ -925,7 +964,9 @@
         <v>15</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="16">
+        <v>43158</v>
+      </c>
       <c r="E5" s="11" t="s">
         <v>100</v>
       </c>
@@ -1016,58 +1057,88 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="17">
+        <v>43158</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" s="20">
+        <v>43158</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1333,7 +1404,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Qalitätssicherung/TestTabelleGUI.xlsx
+++ b/Qalitätssicherung/TestTabelleGUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\OneDrive\Dokumente\GitHub\PSE-Stand_2301\Qalitätssicherung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="4D4CBB30E1FF2B4473FEAF647A161281A0529DEF" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{06F0DCF7-666B-4510-B789-84D5C8D9BE70}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="4D4CBB30E1FF2B4473FEAF647A161281A0529DEF" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{FDD5067D-F7C8-4DF6-BB51-A1F84D694760}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Kategorie</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Überprüfen auf Vollständigkeit (externe Person)</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>MouseOvers</t>
   </si>
   <si>
@@ -348,6 +345,21 @@
   </si>
   <si>
     <t>stepsizeVorschlag immer 1?</t>
+  </si>
+  <si>
+    <t>funktionieren</t>
+  </si>
+  <si>
+    <t>Paul, Jonas</t>
+  </si>
+  <si>
+    <t>BP funktioniert</t>
+  </si>
+  <si>
+    <t>richtiges ausgauen funktioniert, Befehle funktionieren</t>
+  </si>
+  <si>
+    <t>Auswertung funktioniert, löschen funktioniert, hinzufügen funktioniert</t>
   </si>
 </sst>
 </file>
@@ -873,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +950,7 @@
         <v>43158</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -953,7 +965,7 @@
         <v>43158</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>13</v>
@@ -968,7 +980,7 @@
         <v>43158</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>13</v>
@@ -1068,7 +1080,7 @@
         <v>43158</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>13</v>
@@ -1085,7 +1097,7 @@
         <v>43158</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>13</v>
@@ -1102,7 +1114,7 @@
         <v>43158</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>13</v>
@@ -1119,7 +1131,7 @@
         <v>43158</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>13</v>
@@ -1136,7 +1148,7 @@
         <v>43158</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>13</v>
@@ -1199,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1303,44 +1315,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D31" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F32" t="s">
+      <c r="D32" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F33" t="s">
+      <c r="D33" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F34" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="16">
+        <v>43158</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1377,15 +1414,15 @@
         <v>78</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1393,10 +1430,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -1425,39 +1462,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10">
         <v>32.340000000000003</v>
@@ -1465,18 +1502,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Qalitätssicherung/TestTabelleGUI.xlsx
+++ b/Qalitätssicherung/TestTabelleGUI.xlsx
@@ -382,11 +382,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -691,7 +690,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,10 +743,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -760,11 +755,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,11 +767,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,10 +868,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,9 +879,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,9 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="13"/>
-    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
@@ -1070,39 +1055,38 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="53.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="15" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="14" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="16" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
@@ -1171,13 +1155,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1203,7 +1187,7 @@
       <c r="C21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -1212,7 +1196,6 @@
       <c r="F21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4" t="s">
@@ -1221,13 +1204,13 @@
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="22" t="n">
+      <c r="D22" s="5" t="n">
         <v>43158</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1236,7 +1219,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -1253,7 +1236,7 @@
       <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E24" s="11" t="s">
@@ -1264,13 +1247,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1281,7 +1264,7 @@
       <c r="C26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="21" t="n">
+      <c r="D26" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -1298,7 +1281,7 @@
       <c r="C27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -1466,7 +1449,7 @@
       <c r="C40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="21" t="n">
+      <c r="D40" s="10" t="n">
         <v>43158</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -1512,9 +1495,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1536,7 @@
       <c r="A6" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="20" t="n">
         <v>32.34</v>
       </c>
     </row>

--- a/Qalitätssicherung/TestTabelleGUI.xlsx
+++ b/Qalitätssicherung/TestTabelleGUI.xlsx
@@ -132,7 +132,7 @@
   </si>
   <si>
     <t xml:space="preserve">funktioniert, manueles eingeben von .rdbf
-Update Chiara: laden geht nicht bei &gt;2 Programmen, Eingabe wird nicht geladen</t>
+Update Chiara: laden geht wieder</t>
   </si>
   <si>
     <t xml:space="preserve">File_Menu Rest</t>
@@ -506,7 +506,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +557,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE94F"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF73D216"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -569,20 +569,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF73D216"/>
-        <bgColor rgb="FF92D050"/>
+        <fgColor rgb="FFD3D7CF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCAF3E"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D7CF"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFFCE94F"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -690,7 +684,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,47 +721,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -846,7 +844,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF73D216"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFCAF3E"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF92D050"/>
@@ -868,9 +866,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -904,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -972,47 +970,47 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="n">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1021,23 +1019,23 @@
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1054,37 +1052,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="53.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
+    <row r="13" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="12" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="44.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="16" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="14" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1105,7 +1103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
@@ -1121,6 +1119,7 @@
       <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="M16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
@@ -1140,203 +1139,203 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="19" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="19" t="n">
         <v>43156</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="10" t="n">
+      <c r="D29" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="10" t="n">
+      <c r="D30" s="5" t="n">
         <v>43156</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1443,19 +1442,19 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="10" t="n">
-        <v>43158</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="5" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1495,7 +1494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.65"/>
   </cols>
@@ -1536,7 +1535,7 @@
       <c r="A6" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="20" t="n">
+      <c r="B6" s="21" t="n">
         <v>32.34</v>
       </c>
     </row>
